--- a/mbs-perturbation/bloated/svm/nearmiss/bloated-svm-linear-nearmiss-results.xlsx
+++ b/mbs-perturbation/bloated/svm/nearmiss/bloated-svm-linear-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7058823529411765</v>
+        <v>0.2</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8000000000000002</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8047337278106509</v>
+        <v>0.6923076923076923</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8387096774193548</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6745562130177515</v>
+        <v>0.9408284023668639</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="D4" t="n">
-        <v>0.375</v>
+        <v>0.2</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5502958579881657</v>
+        <v>0.5680473372781065</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.9230769230769231</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.875</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7307692307692307</v>
+        <v>0.3205128205128205</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6606209150326798</v>
+        <v>0.366128364389234</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.4153846153846154</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5360752688172044</v>
+        <v>0.3701587301587302</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6905325443786982</v>
+        <v>0.6889546351084812</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/bloated/svm/nearmiss/bloated-svm-linear-nearmiss-results.xlsx
+++ b/mbs-perturbation/bloated/svm/nearmiss/bloated-svm-linear-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.6666666666666667</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9285714285714286</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9408284023668639</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.8</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2</v>
+        <v>0.5000000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5680473372781065</v>
+        <v>0.6363636363636364</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.6174242424242424</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4782608695652174</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6111111111111112</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3205128205128205</v>
+        <v>0.7424242424242424</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.366128364389234</v>
+        <v>0.5733333333333334</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4153846153846154</v>
+        <v>0.4727272727272728</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3701587301587302</v>
+        <v>0.4896296296296296</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6889546351084812</v>
+        <v>0.7325757575757577</v>
       </c>
     </row>
   </sheetData>
